--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F24FC7-759E-47EC-8D93-3C2CFAF50E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96119981-2EEB-401B-91E2-C4D46074FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -312,6 +312,54 @@
   </si>
   <si>
     <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Hoshi</t>
+  </si>
+  <si>
+    <t>Sasha</t>
+  </si>
+  <si>
+    <t>Wilbert</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Nick</t>
   </si>
 </sst>
 </file>
@@ -683,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2235,20 +2283,284 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="F91">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>39</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>40</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>13</v>
+      </c>
+      <c r="F98">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="F100">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>41</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>83000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -2473,6 +2785,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2483,16 +2803,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2511,6 +2821,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96119981-2EEB-401B-91E2-C4D46074FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E288E-46CB-4F6D-9981-0EEC79722C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Nick</t>
+  </si>
+  <si>
+    <t>Stocks Gains</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Married</t>
   </si>
 </sst>
 </file>
@@ -731,15 +740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,8 +767,17 @@
       <c r="F1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -778,8 +796,17 @@
       <c r="F2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>4000</v>
+      </c>
+      <c r="H2">
+        <v>1500</v>
+      </c>
+      <c r="I2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -798,8 +825,17 @@
       <c r="F3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -815,8 +851,17 @@
       <c r="F4">
         <v>60000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3500</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -832,8 +877,17 @@
       <c r="F5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>2300</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -852,8 +906,17 @@
       <c r="F6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>5400</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -872,8 +935,17 @@
       <c r="F7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>3100</v>
+      </c>
+      <c r="H7">
+        <v>1500</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -892,8 +964,17 @@
       <c r="F8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2100</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -912,8 +993,17 @@
       <c r="F9">
         <v>35000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -929,8 +1019,17 @@
       <c r="F10">
         <v>70000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -949,8 +1048,17 @@
       <c r="F11">
         <v>60000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -969,8 +1077,17 @@
       <c r="F12">
         <v>45000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>-500</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -986,8 +1103,17 @@
       <c r="F13">
         <v>82500</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>3000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1003,8 +1129,17 @@
       <c r="F14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1023,8 +1158,17 @@
       <c r="F15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1040,8 +1184,17 @@
       <c r="F16">
         <v>34000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>750</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1060,8 +1213,17 @@
       <c r="F17">
         <v>37000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>3200</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1077,8 +1239,17 @@
       <c r="F18">
         <v>52500</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1700</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1097,8 +1268,17 @@
       <c r="F19">
         <v>67000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1600</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1117,8 +1297,17 @@
       <c r="F20">
         <v>72000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1800</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1134,8 +1323,17 @@
       <c r="F21">
         <v>51000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>-200</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1151,8 +1349,17 @@
       <c r="F22">
         <v>48000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>-300</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1168,8 +1375,17 @@
       <c r="F23">
         <v>49000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>-100</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1188,8 +1404,17 @@
       <c r="F24">
         <v>53000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1205,8 +1430,17 @@
       <c r="F25">
         <v>67000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1225,8 +1459,17 @@
       <c r="F26">
         <v>74000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>1500</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1242,8 +1485,17 @@
       <c r="F27">
         <v>49000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>2000</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1259,8 +1511,17 @@
       <c r="F28">
         <v>34500</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>400</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1279,8 +1540,17 @@
       <c r="F29">
         <v>41500</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>1250</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1296,8 +1566,17 @@
       <c r="F30">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>450</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1313,8 +1592,17 @@
       <c r="F31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>300</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1333,8 +1621,17 @@
       <c r="F32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>400</v>
+      </c>
+      <c r="H32">
+        <v>1750</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1350,8 +1647,17 @@
       <c r="F33">
         <v>28000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>800</v>
+      </c>
+      <c r="H33">
+        <v>1500</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1367,8 +1673,17 @@
       <c r="F34">
         <v>27500</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>900</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1387,8 +1702,17 @@
       <c r="F35">
         <v>30000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1404,8 +1728,17 @@
       <c r="F36">
         <v>36500</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>1100</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1421,8 +1754,17 @@
       <c r="F37">
         <v>54500</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>1300</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1441,8 +1783,17 @@
       <c r="F38">
         <v>67000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>1450</v>
+      </c>
+      <c r="H38">
+        <v>750</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1461,8 +1812,17 @@
       <c r="F39">
         <v>52000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>1900</v>
+      </c>
+      <c r="H39">
+        <v>500</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1478,8 +1838,17 @@
       <c r="F40">
         <v>46000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>2300</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1498,8 +1867,17 @@
       <c r="F41">
         <v>47000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>2450</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1518,8 +1896,17 @@
       <c r="F42">
         <v>53500</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>3200</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1535,8 +1922,17 @@
       <c r="F43">
         <v>57500</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>2900</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1555,8 +1951,17 @@
       <c r="F44">
         <v>64000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+      <c r="I44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1572,8 +1977,17 @@
       <c r="F45">
         <v>27500</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1592,8 +2006,17 @@
       <c r="F46">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1609,8 +2032,17 @@
       <c r="F47">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1629,8 +2061,17 @@
       <c r="F48">
         <v>80000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1649,8 +2090,17 @@
       <c r="F49">
         <v>53000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>250</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1666,8 +2116,17 @@
       <c r="F50">
         <v>37000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1686,8 +2145,17 @@
       <c r="F51">
         <v>43000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>500</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1703,8 +2171,17 @@
       <c r="F52">
         <v>45000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>500</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1720,8 +2197,17 @@
       <c r="F53">
         <v>48500</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>-200</v>
+      </c>
+      <c r="H53">
+        <v>1000</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1740,8 +2226,17 @@
       <c r="F54">
         <v>49000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>-300</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1760,8 +2255,17 @@
       <c r="F55">
         <v>32000</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>-250</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1777,8 +2281,17 @@
       <c r="F56">
         <v>31000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>-500</v>
+      </c>
+      <c r="H56">
+        <v>750</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1797,8 +2310,17 @@
       <c r="F57">
         <v>33500</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>-100</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1814,8 +2336,17 @@
       <c r="F58">
         <v>61000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>200</v>
+      </c>
+      <c r="H58">
+        <v>800</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1834,8 +2365,17 @@
       <c r="F59">
         <v>74000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>900</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1851,8 +2391,17 @@
       <c r="F60">
         <v>85000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1100</v>
+      </c>
+      <c r="I60">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1868,8 +2417,17 @@
       <c r="F61">
         <v>54000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>-1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1885,8 +2443,17 @@
       <c r="F62">
         <v>49000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>-1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1902,8 +2469,17 @@
       <c r="F63">
         <v>39000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>-1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1919,8 +2495,17 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>-1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1936,8 +2521,17 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>-1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1953,8 +2547,17 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>-1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1973,8 +2576,17 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1993,8 +2605,17 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>800</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2010,8 +2631,17 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>200</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2027,8 +2657,17 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2044,8 +2683,17 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>200</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2061,8 +2709,17 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>-1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2078,8 +2735,17 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2095,8 +2761,17 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2112,8 +2787,17 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>-1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2129,8 +2813,17 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>250</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2146,8 +2839,17 @@
       <c r="F77">
         <v>84000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>-100</v>
+      </c>
+      <c r="H77">
+        <v>900</v>
+      </c>
+      <c r="I77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2163,8 +2865,17 @@
       <c r="F78">
         <v>91000</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>-1000</v>
+      </c>
+      <c r="H78">
+        <v>1100</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2180,8 +2891,17 @@
       <c r="F79">
         <v>73000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>-2000</v>
+      </c>
+      <c r="H79">
+        <v>1200</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2197,8 +2917,17 @@
       <c r="F80">
         <v>68500</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>-3000</v>
+      </c>
+      <c r="H80">
+        <v>1000</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2214,8 +2943,17 @@
       <c r="F81">
         <v>95000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>-2500</v>
+      </c>
+      <c r="H81">
+        <v>1300</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2231,8 +2969,17 @@
       <c r="F82">
         <v>86000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1400</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2248,8 +2995,17 @@
       <c r="F83">
         <v>49500</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>-1</v>
+      </c>
+      <c r="I83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2265,8 +3021,17 @@
       <c r="F84">
         <v>21000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>-1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2282,8 +3047,17 @@
       <c r="F85">
         <v>23000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>-1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2299,8 +3073,17 @@
       <c r="F86">
         <v>53000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>800</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2316,8 +3099,17 @@
       <c r="F87">
         <v>63000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>200</v>
+      </c>
+      <c r="H87">
+        <v>750</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2333,8 +3125,17 @@
       <c r="F88">
         <v>59000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>150</v>
+      </c>
+      <c r="H88">
+        <v>650</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2350,8 +3151,17 @@
       <c r="F89">
         <v>46500</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>350</v>
+      </c>
+      <c r="H89">
+        <v>-1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2367,8 +3177,17 @@
       <c r="F90">
         <v>55000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>450</v>
+      </c>
+      <c r="H90">
+        <v>-1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2384,8 +3203,17 @@
       <c r="F91">
         <v>48500</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>-50</v>
+      </c>
+      <c r="H91">
+        <v>-1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2401,8 +3229,17 @@
       <c r="F92">
         <v>27000</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>-1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2418,8 +3255,17 @@
       <c r="F93">
         <v>49000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>50</v>
+      </c>
+      <c r="H93">
+        <v>-1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2435,8 +3281,17 @@
       <c r="F94">
         <v>87000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2452,8 +3307,17 @@
       <c r="F95">
         <v>86500</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>300</v>
+      </c>
+      <c r="H95">
+        <v>800</v>
+      </c>
+      <c r="I95">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2469,8 +3333,17 @@
       <c r="F96">
         <v>61000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>400</v>
+      </c>
+      <c r="H96">
+        <v>500</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2486,8 +3359,17 @@
       <c r="F97">
         <v>63000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>500</v>
+      </c>
+      <c r="H97">
+        <v>400</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2503,8 +3385,17 @@
       <c r="F98">
         <v>37000</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <v>-1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2520,8 +3411,17 @@
       <c r="F99">
         <v>57500</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>1250</v>
+      </c>
+      <c r="H99">
+        <v>-1</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2537,8 +3437,17 @@
       <c r="F100">
         <v>84000</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>1350</v>
+      </c>
+      <c r="H100">
+        <v>1300</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2553,6 +3462,15 @@
       </c>
       <c r="F101">
         <v>83000</v>
+      </c>
+      <c r="G101">
+        <v>1400</v>
+      </c>
+      <c r="H101">
+        <v>1350</v>
+      </c>
+      <c r="I101">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2561,6 +3479,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -2785,14 +3711,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2803,6 +3721,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2821,16 +3749,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E288E-46CB-4F6D-9981-0EEC79722C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965EC04-5DB9-401A-AEAA-B6F765440F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -369,6 +369,237 @@
   </si>
   <si>
     <t>Married</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Corinne</t>
+  </si>
+  <si>
+    <t>Foreign Born</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Kiri</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Edger</t>
+  </si>
+  <si>
+    <t>Mikhail</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Alejandra</t>
+  </si>
+  <si>
+    <t>Juanita</t>
+  </si>
+  <si>
+    <t>Penn</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Latesha</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Cerena</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Ciri</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Sani</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>Rhonda</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Claud</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Fabrian</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Kiera</t>
+  </si>
+  <si>
+    <t>Kara</t>
+  </si>
+  <si>
+    <t>Lamarr</t>
+  </si>
+  <si>
+    <t>Neville</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Geoff</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Cheryl</t>
+  </si>
+  <si>
+    <t>Fei</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Prudence</t>
+  </si>
+  <si>
+    <t>Charity</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Guarav</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Hinata</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Yanis</t>
+  </si>
+  <si>
+    <t>Annalise</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
   </si>
 </sst>
 </file>
@@ -740,15 +971,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,8 +1008,11 @@
       <c r="I1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -805,8 +1040,11 @@
       <c r="I2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -835,7 +1073,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -861,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -887,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -916,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -933,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>9999999</v>
       </c>
       <c r="G7">
         <v>3100</v>
@@ -945,7 +1183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -974,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1351,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1461,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +1487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1295,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>72000</v>
+        <v>9999999</v>
       </c>
       <c r="G20">
         <v>1800</v>
@@ -1306,8 +1544,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1332,8 +1573,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1414,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1684,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1495,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1521,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1576,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1631,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1712,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1738,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1752,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="F37">
-        <v>54500</v>
+        <v>9999999</v>
       </c>
       <c r="G37">
         <v>1300</v>
@@ -1764,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +2037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1822,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1848,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1877,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1905,8 +2149,11 @@
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1932,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1961,7 +2208,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1987,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2016,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2042,7 +2289,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2071,7 +2318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2100,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2126,7 +2373,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2155,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2181,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2207,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2236,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2264,8 +2511,11 @@
       <c r="I55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2291,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2320,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2346,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2375,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2401,7 +2651,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2453,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2479,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2505,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2531,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2557,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2585,8 +2835,11 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2615,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2629,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>9999999</v>
       </c>
       <c r="G69">
         <v>200</v>
@@ -2641,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2667,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2693,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2719,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2745,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2771,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2797,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2823,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2849,7 +3102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2875,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2901,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2927,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2953,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2978,8 +3231,11 @@
       <c r="I82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3004,8 +3260,11 @@
       <c r="I83">
         <v>-1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3031,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3057,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3083,7 +3342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3109,7 +3368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3135,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3161,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3187,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3213,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3239,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3265,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3291,7 +3550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3317,7 +3576,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3331,7 +3590,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>61000</v>
+        <v>9999999</v>
       </c>
       <c r="G96">
         <v>400</v>
@@ -3342,8 +3601,11 @@
       <c r="I96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3369,7 +3631,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3395,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3421,7 +3683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3447,7 +3709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3471,6 +3733,1983 @@
       </c>
       <c r="I101">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>-1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>64000</v>
+      </c>
+      <c r="G103">
+        <v>250</v>
+      </c>
+      <c r="H103">
+        <v>-1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>29000</v>
+      </c>
+      <c r="G104">
+        <v>-100</v>
+      </c>
+      <c r="H104">
+        <v>-1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>51000</v>
+      </c>
+      <c r="G105">
+        <v>900</v>
+      </c>
+      <c r="H105">
+        <v>800</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>9999999</v>
+      </c>
+      <c r="G106">
+        <v>2000</v>
+      </c>
+      <c r="H106">
+        <v>1500</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="F107">
+        <v>43000</v>
+      </c>
+      <c r="G107">
+        <v>-2000</v>
+      </c>
+      <c r="H107">
+        <v>-1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>61000</v>
+      </c>
+      <c r="G108">
+        <v>-2750</v>
+      </c>
+      <c r="H108">
+        <v>1000</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>57000</v>
+      </c>
+      <c r="G109">
+        <v>-1000</v>
+      </c>
+      <c r="H109">
+        <v>500</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>84000</v>
+      </c>
+      <c r="G110">
+        <v>500</v>
+      </c>
+      <c r="H110">
+        <v>2000</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="F111">
+        <v>67000</v>
+      </c>
+      <c r="G111">
+        <v>250</v>
+      </c>
+      <c r="H111">
+        <v>1200</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112">
+        <v>30</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>59000</v>
+      </c>
+      <c r="G112">
+        <v>500</v>
+      </c>
+      <c r="H112">
+        <v>1000</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>37000</v>
+      </c>
+      <c r="G113">
+        <v>1000</v>
+      </c>
+      <c r="H113">
+        <v>-1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>41000</v>
+      </c>
+      <c r="G114">
+        <v>250</v>
+      </c>
+      <c r="H114">
+        <v>-1</v>
+      </c>
+      <c r="I114">
+        <v>-1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>-750</v>
+      </c>
+      <c r="H115">
+        <v>-1</v>
+      </c>
+      <c r="I115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>54000</v>
+      </c>
+      <c r="G116">
+        <v>-250</v>
+      </c>
+      <c r="H116">
+        <v>-1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117">
+        <v>31</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>21</v>
+      </c>
+      <c r="F117">
+        <v>65000</v>
+      </c>
+      <c r="G117">
+        <v>-250</v>
+      </c>
+      <c r="H117">
+        <v>-1</v>
+      </c>
+      <c r="I117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <v>71000</v>
+      </c>
+      <c r="G118">
+        <v>-500</v>
+      </c>
+      <c r="H118">
+        <v>1000</v>
+      </c>
+      <c r="I118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>66000</v>
+      </c>
+      <c r="G119">
+        <v>-700</v>
+      </c>
+      <c r="H119">
+        <v>-1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>21</v>
+      </c>
+      <c r="F120">
+        <v>98000</v>
+      </c>
+      <c r="G120">
+        <v>1000</v>
+      </c>
+      <c r="H120">
+        <v>2000</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>89000</v>
+      </c>
+      <c r="G121">
+        <v>1500</v>
+      </c>
+      <c r="H121">
+        <v>1900</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>78000</v>
+      </c>
+      <c r="G122">
+        <v>1000</v>
+      </c>
+      <c r="H122">
+        <v>1400</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>21</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>-1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="F124">
+        <v>54000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>-1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>78000</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>-1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126">
+        <v>34</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>11</v>
+      </c>
+      <c r="F126">
+        <v>47000</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>-1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>21</v>
+      </c>
+      <c r="F127">
+        <v>34000</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>-1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="F128">
+        <v>49000</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>-1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>34</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>76000</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1000</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>28</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>11</v>
+      </c>
+      <c r="F130">
+        <v>64000</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>-1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>-1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>-1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
+      </c>
+      <c r="F133">
+        <v>84000</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>-1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>66000</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>-1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>54000</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>-1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>28</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>56000</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>-1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>20</v>
+      </c>
+      <c r="F137">
+        <v>48000</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>-1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>51000</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>-1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>57000</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>-1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>77000</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>-1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>32</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>14</v>
+      </c>
+      <c r="F141">
+        <v>69000</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>-1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142">
+        <v>34</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>13</v>
+      </c>
+      <c r="F142">
+        <v>63000</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>-1</v>
+      </c>
+      <c r="I142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143">
+        <v>27</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>53000</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>-1</v>
+      </c>
+      <c r="I143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>12</v>
+      </c>
+      <c r="F144">
+        <v>48000</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>-1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>30</v>
+      </c>
+      <c r="F145">
+        <v>36000</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>-1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>30</v>
+      </c>
+      <c r="F146">
+        <v>67000</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>-1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>30</v>
+      </c>
+      <c r="F147">
+        <v>54000</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>-1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>30</v>
+      </c>
+      <c r="F148">
+        <v>68000</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>-1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>71000</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>-1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150">
+        <v>29</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>74000</v>
+      </c>
+      <c r="G150">
+        <v>250</v>
+      </c>
+      <c r="H150">
+        <v>750</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <v>87000</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1000</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>23</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>30</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>-250</v>
+      </c>
+      <c r="H152">
+        <v>-1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>30</v>
+      </c>
+      <c r="F153">
+        <v>45000</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>-1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>30</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>97000</v>
+      </c>
+      <c r="G154">
+        <v>500</v>
+      </c>
+      <c r="H154">
+        <v>2000</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155">
+        <v>28</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>30</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>84500</v>
+      </c>
+      <c r="G155">
+        <v>200</v>
+      </c>
+      <c r="H155">
+        <v>1700</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>30</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>86000</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+      <c r="H156">
+        <v>2300</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>30</v>
+      </c>
+      <c r="F157">
+        <v>78500</v>
+      </c>
+      <c r="G157">
+        <v>800</v>
+      </c>
+      <c r="H157">
+        <v>-1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158">
+        <v>29</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>30</v>
+      </c>
+      <c r="F158">
+        <v>83000</v>
+      </c>
+      <c r="G158">
+        <v>400</v>
+      </c>
+      <c r="H158">
+        <v>1200</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159">
+        <v>26</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>30</v>
+      </c>
+      <c r="F159">
+        <v>72000</v>
+      </c>
+      <c r="G159">
+        <v>-200</v>
+      </c>
+      <c r="H159">
+        <v>-1</v>
+      </c>
+      <c r="I159">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="F160">
+        <v>48000</v>
+      </c>
+      <c r="G160">
+        <v>-100</v>
+      </c>
+      <c r="H160">
+        <v>-1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>30</v>
+      </c>
+      <c r="F161">
+        <v>67000</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>-1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>30</v>
+      </c>
+      <c r="F162">
+        <v>51000</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>-1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163">
+        <v>26</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <v>54000</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>-1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164">
+        <v>27</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>21</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>-1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>9999999</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>-1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>30</v>
+      </c>
+      <c r="F166">
+        <v>81500</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>-1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167">
+        <v>28</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>30</v>
+      </c>
+      <c r="F167">
+        <v>74000</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>-1</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>30</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1250</v>
+      </c>
+      <c r="H168">
+        <v>-1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>30</v>
+      </c>
+      <c r="F169">
+        <v>35000</v>
+      </c>
+      <c r="G169">
+        <v>250</v>
+      </c>
+      <c r="H169">
+        <v>-1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>-200</v>
+      </c>
+      <c r="H170">
+        <v>-1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+      <c r="F171">
+        <v>64000</v>
+      </c>
+      <c r="G171">
+        <v>100</v>
+      </c>
+      <c r="H171">
+        <v>-1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <v>84000</v>
+      </c>
+      <c r="G172">
+        <v>150</v>
+      </c>
+      <c r="H172">
+        <v>-1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>30</v>
+      </c>
+      <c r="F173">
+        <v>54000</v>
+      </c>
+      <c r="G173">
+        <v>400</v>
+      </c>
+      <c r="H173">
+        <v>750</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174">
+        <v>37</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>30</v>
+      </c>
+      <c r="F174">
+        <v>95000</v>
+      </c>
+      <c r="G174">
+        <v>1000</v>
+      </c>
+      <c r="H174">
+        <v>2500</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175">
+        <v>32</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <v>74000</v>
+      </c>
+      <c r="G175">
+        <v>800</v>
+      </c>
+      <c r="H175">
+        <v>2000</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>27</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>30</v>
+      </c>
+      <c r="F176">
+        <v>48500</v>
+      </c>
+      <c r="G176">
+        <v>-300</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3479,14 +5718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -3711,6 +5942,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3721,16 +5960,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3749,6 +5978,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965EC04-5DB9-401A-AEAA-B6F765440F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DFD28-0911-4DF6-9E92-0E67890A4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -600,6 +600,42 @@
   </si>
   <si>
     <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Laurance</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Felonies</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Alisha</t>
+  </si>
+  <si>
+    <t>Aiden</t>
   </si>
 </sst>
 </file>
@@ -971,16 +1007,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,8 +1047,11 @@
       <c r="J1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1043,8 +1082,11 @@
       <c r="J2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1114,11 @@
       <c r="I3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1325,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1396,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1405,8 +1450,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1461,7 +1509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1548,7 +1596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1625,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1658,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1684,7 +1732,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1713,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1765,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1794,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1820,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1845,8 +1893,11 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1875,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1901,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1956,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1982,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2036,8 +2087,11 @@
       <c r="I38">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2092,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2153,7 +2207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2179,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2208,7 +2262,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2263,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2289,7 +2343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2318,7 +2372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2347,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2373,7 +2427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2402,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2428,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2454,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2483,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2515,7 +2569,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2540,8 +2594,11 @@
       <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2569,8 +2626,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2595,8 +2655,11 @@
       <c r="I58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2625,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2651,7 +2714,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2677,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2703,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2729,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2755,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2781,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2807,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2839,7 +2902,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2868,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2894,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2920,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2946,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2972,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2998,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3024,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3050,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3076,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3101,8 +3164,11 @@
       <c r="I77">
         <v>-1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3127,8 +3193,11 @@
       <c r="I78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3154,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3180,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3206,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3235,7 +3304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3264,7 +3333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3290,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3316,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3342,7 +3411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3368,7 +3437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3394,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3420,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3446,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3472,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3498,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3524,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3549,8 +3618,11 @@
       <c r="I94">
         <v>-1</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3576,7 +3648,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4030,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -4059,7 +4131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -4087,8 +4159,11 @@
       <c r="J114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -4114,7 +4189,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -4140,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -4166,7 +4241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -4192,7 +4267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -4218,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -4244,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -4270,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -4296,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -4322,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -4348,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -4374,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -4400,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -4426,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -4452,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -4478,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -4504,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -4530,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -4556,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -4582,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -4607,8 +4682,11 @@
       <c r="I134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -4634,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -4660,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -4686,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4712,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4738,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4764,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -4790,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -4816,7 +4894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -4842,7 +4920,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -4868,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -4894,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -4920,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -4946,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -4972,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -4998,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -5023,8 +5101,11 @@
       <c r="I150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -5050,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -5076,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -5102,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -5131,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -5160,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -5189,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -5215,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -5241,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -5267,7 +5348,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -5293,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -5319,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -5345,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -5370,8 +5451,11 @@
       <c r="I163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -5397,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -5423,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -5448,8 +5532,11 @@
       <c r="I166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -5475,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -5500,8 +5587,11 @@
       <c r="I168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -5527,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -5553,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -5579,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -5605,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -5631,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -5654,10 +5744,10 @@
         <v>2500</v>
       </c>
       <c r="I174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -5680,10 +5770,10 @@
         <v>2000</v>
       </c>
       <c r="I175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -5710,6 +5800,298 @@
       </c>
       <c r="J176" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>78000</v>
+      </c>
+      <c r="G177">
+        <v>500</v>
+      </c>
+      <c r="H177">
+        <v>1300</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>81000</v>
+      </c>
+      <c r="G178">
+        <v>700</v>
+      </c>
+      <c r="H178">
+        <v>1700</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179">
+        <v>31</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179">
+        <v>30</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>-1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180">
+        <v>34</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>14</v>
+      </c>
+      <c r="F180">
+        <v>66000</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>-1</v>
+      </c>
+      <c r="I180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181">
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>13</v>
+      </c>
+      <c r="F181">
+        <v>71500</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>-1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182">
+        <v>41</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>30</v>
+      </c>
+      <c r="F182">
+        <v>-1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>900</v>
+      </c>
+      <c r="I182">
+        <v>-1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183">
+        <v>42</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>30</v>
+      </c>
+      <c r="F183">
+        <v>89000</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1750</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184">
+        <v>37</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>14</v>
+      </c>
+      <c r="F184">
+        <v>67000</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1500</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185">
+        <v>38</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>13</v>
+      </c>
+      <c r="F185">
+        <v>71000</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1600</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186">
+        <v>26</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>12</v>
+      </c>
+      <c r="F186">
+        <v>38000</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>-1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187">
+        <v>26</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>13</v>
+      </c>
+      <c r="F187">
+        <v>41000</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>-1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5718,6 +6100,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -5942,14 +6332,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5960,6 +6342,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5978,16 +6370,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DFD28-0911-4DF6-9E92-0E67890A4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC8877-61FC-4836-BC77-667409CF68EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="236">
   <si>
     <t>Name</t>
   </si>
@@ -636,6 +636,114 @@
   </si>
   <si>
     <t>Aiden</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Nala</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Kendrick</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Lori</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Waldo</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Muhammad</t>
+  </si>
+  <si>
+    <t>Maged</t>
+  </si>
+  <si>
+    <t>Cage</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>Terri</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Elvis</t>
   </si>
 </sst>
 </file>
@@ -1007,16 +1115,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1336,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1504,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1617,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1535,7 +1643,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +1704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1625,7 +1733,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1706,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1732,7 +1840,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1787,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1813,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1897,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1926,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1952,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1978,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2007,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2032,8 +2140,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2059,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2091,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2120,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2146,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2207,7 +2318,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2262,7 +2373,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2288,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2317,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2343,7 +2454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2372,7 +2483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2401,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2427,7 +2538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2456,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2482,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2508,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2537,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2569,7 +2680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2598,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2630,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2659,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2688,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2714,7 +2825,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2740,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2766,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2792,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2818,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2844,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2870,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2902,7 +3013,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2931,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2957,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2983,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3009,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3035,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3061,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3087,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3113,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3139,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3168,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3197,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3223,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3249,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3275,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3304,7 +3415,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3333,7 +3444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3359,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3385,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3411,7 +3522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3437,7 +3548,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3463,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3489,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3515,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3541,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3567,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3593,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3622,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3648,7 +3759,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3677,7 +3788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3703,7 +3814,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3729,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3755,7 +3866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3781,7 +3892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3807,7 +3918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -3833,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -3859,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -3885,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -3914,7 +4025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3940,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -3966,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -3992,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -4018,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -4047,7 +4158,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -4076,7 +4187,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -4102,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -4131,7 +4242,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -4163,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -4189,7 +4300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -4215,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -4241,7 +4352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -4267,7 +4378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -4293,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -4319,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -4344,8 +4455,11 @@
       <c r="I121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -4371,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -4397,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -4423,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -4449,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -4475,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -4501,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -4527,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -4553,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -4579,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -4605,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -4631,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -4656,8 +4770,11 @@
       <c r="I133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -4686,7 +4803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -4712,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -4738,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -4764,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4790,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4816,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4842,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -4868,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -4894,7 +5011,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -4920,7 +5037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -4946,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -4972,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -4998,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -5024,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -5050,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -5076,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -5105,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -5131,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -5157,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -5183,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -5212,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -5241,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -5270,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -5296,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -5322,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -5348,7 +5465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -5374,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -5400,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -5426,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -5455,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -5481,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -5507,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -5536,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -5562,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -5591,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -5617,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -5643,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -5669,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -5695,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -5721,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -5747,7 +5864,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -5773,7 +5890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -5802,7 +5919,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -5828,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -5857,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -5883,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -5909,7 +6026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -5935,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -5964,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -5990,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -6016,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -6042,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -6068,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -6091,6 +6208,957 @@
         <v>-1</v>
       </c>
       <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188">
+        <v>36</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>66000</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>-1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>-1</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190">
+        <v>26</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>14</v>
+      </c>
+      <c r="F190">
+        <v>38000</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>-1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191">
+        <v>11</v>
+      </c>
+      <c r="F191">
+        <v>-1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>-1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192">
+        <v>37</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="F192">
+        <v>67000</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>800</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193">
+        <v>27</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="F193">
+        <v>46500</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>-1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194">
+        <v>28</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>11</v>
+      </c>
+      <c r="F194">
+        <v>57000</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>-1</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>-100</v>
+      </c>
+      <c r="H195">
+        <v>-1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196">
+        <v>33</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196">
+        <v>30</v>
+      </c>
+      <c r="F196">
+        <v>71500</v>
+      </c>
+      <c r="G196">
+        <v>-150</v>
+      </c>
+      <c r="H196">
+        <v>1200</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197">
+        <v>28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>52000</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>-1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198">
+        <v>27</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>48000</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>-1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>-1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>37000</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>-1</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201">
+        <v>27</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>51000</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>-1</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202">
+        <v>32</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+      <c r="F202">
+        <v>62000</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>-1</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203">
+        <v>38</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>87000</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>2000</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204">
+        <v>38</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>93000</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>2100</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205">
+        <v>37</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>87000</v>
+      </c>
+      <c r="G205">
+        <v>-650</v>
+      </c>
+      <c r="H205">
+        <v>1800</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206">
+        <v>28</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>20</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>300</v>
+      </c>
+      <c r="H206">
+        <v>-1</v>
+      </c>
+      <c r="I206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207">
+        <v>25</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>20</v>
+      </c>
+      <c r="F207">
+        <v>56000</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>-1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208">
+        <v>26</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>20</v>
+      </c>
+      <c r="F208">
+        <v>28500</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>-1</v>
+      </c>
+      <c r="I208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209">
+        <v>27</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>13</v>
+      </c>
+      <c r="F209">
+        <v>41000</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>-1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>21</v>
+      </c>
+      <c r="F210">
+        <v>74500</v>
+      </c>
+      <c r="G210">
+        <v>-1000</v>
+      </c>
+      <c r="H210">
+        <v>1400</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>13</v>
+      </c>
+      <c r="F211">
+        <v>67000</v>
+      </c>
+      <c r="G211">
+        <v>-500</v>
+      </c>
+      <c r="H211">
+        <v>900</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212">
+        <v>34</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>63500</v>
+      </c>
+      <c r="G212">
+        <v>-400</v>
+      </c>
+      <c r="H212">
+        <v>850</v>
+      </c>
+      <c r="I212">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213">
+        <v>36</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>79500</v>
+      </c>
+      <c r="G213">
+        <v>-200</v>
+      </c>
+      <c r="H213">
+        <v>1200</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214">
+        <v>37</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>77000</v>
+      </c>
+      <c r="G214">
+        <v>-350</v>
+      </c>
+      <c r="H214">
+        <v>1300</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215">
+        <v>31</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="F215">
+        <v>67000</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>800</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216">
+        <v>33</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>59000</v>
+      </c>
+      <c r="G216">
+        <v>-200</v>
+      </c>
+      <c r="H216">
+        <v>-1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217">
+        <v>28</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="F217">
+        <v>65000</v>
+      </c>
+      <c r="G217">
+        <v>-100</v>
+      </c>
+      <c r="H217">
+        <v>-1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218">
+        <v>31</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>64500</v>
+      </c>
+      <c r="G218">
+        <v>100</v>
+      </c>
+      <c r="H218">
+        <v>-1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219">
+        <v>28</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>57500</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>-1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220">
+        <v>29</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>20</v>
+      </c>
+      <c r="F220">
+        <v>9999999</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>-1</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>73000</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>-1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222">
+        <v>27</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>30</v>
+      </c>
+      <c r="F222">
+        <v>71000</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>-1</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223">
+        <v>31</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>20</v>
+      </c>
+      <c r="F223">
+        <v>68500</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>-1</v>
+      </c>
+      <c r="I223">
         <v>1</v>
       </c>
     </row>
@@ -6100,14 +7168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -6332,6 +7392,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6342,16 +7410,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6370,6 +7428,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC8877-61FC-4836-BC77-667409CF68EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A154B-370D-403B-804E-1795C284487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
+    <workbookView xWindow="4725" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="271">
   <si>
     <t>Name</t>
   </si>
@@ -744,6 +744,111 @@
   </si>
   <si>
     <t>Elvis</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Shayna</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Kenshi</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Arcturo</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Geralt</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Wilbur</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>Kianna</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Mikhaila</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
+    <t>Military Service</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Yuval</t>
+  </si>
+  <si>
+    <t>Jessica</t>
   </si>
 </sst>
 </file>
@@ -1115,16 +1220,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:K223"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1263,11 @@
       <c r="K1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1277,8 +1385,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1417,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1448,8 +1562,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +1621,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2059,8 +2176,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2085,8 +2205,11 @@
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2115,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2170,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2231,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2242,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>46000</v>
@@ -2256,8 +2379,11 @@
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2318,7 +2444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2344,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2373,7 +2499,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2399,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2428,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2454,7 +2580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2483,7 +2609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2511,8 +2637,11 @@
       <c r="I49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2537,8 +2666,11 @@
       <c r="I50">
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2593,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2619,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2648,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2680,7 +2812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2709,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2741,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2769,8 +2901,11 @@
       <c r="K58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2799,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2825,7 +2960,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2851,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2876,8 +3011,11 @@
       <c r="I62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2903,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2929,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2955,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2981,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3013,7 +3151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3042,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3068,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3094,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3120,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3146,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3172,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3197,8 +3335,11 @@
       <c r="I74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3224,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3250,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3279,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3308,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3334,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3360,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3386,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3415,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3444,7 +3585,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3470,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3496,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3522,7 +3663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3548,7 +3689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3574,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3600,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3626,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3652,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3677,8 +3818,11 @@
       <c r="I92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3704,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3733,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3759,7 +3903,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3788,7 +3932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3814,7 +3958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3840,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3866,7 +4010,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3891,8 +4035,11 @@
       <c r="I100">
         <v>-1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3918,7 +4065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -3944,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -3970,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -3996,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -4025,7 +4172,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -4051,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -4077,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -4103,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -4129,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -4158,7 +4305,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -4187,7 +4334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -4213,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -4242,7 +4389,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -4274,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -4300,7 +4447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -4326,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -4352,7 +4499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -4378,7 +4525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -4403,8 +4550,11 @@
       <c r="I119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -4430,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -4459,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -4485,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -4511,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -4537,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -4563,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -4589,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -4615,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -4641,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -4667,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -4692,8 +4842,11 @@
       <c r="I130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -4719,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -4745,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -4774,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -4803,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -4829,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -4855,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -4881,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4907,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4933,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4959,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -4985,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -5011,7 +5164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -5037,7 +5190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -5063,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -5089,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -5115,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -5126,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="D147">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F147">
         <v>54000</v>
@@ -5141,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -5167,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -5192,8 +5345,11 @@
       <c r="I149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -5222,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -5248,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -5274,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -5300,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -5329,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -5358,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -5387,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -5398,7 +5554,7 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F157">
         <v>78500</v>
@@ -5413,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -5424,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="D158">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F158">
         <v>83000</v>
@@ -5438,8 +5594,11 @@
       <c r="I158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -5465,7 +5624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -5491,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -5517,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -5543,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -5572,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -5598,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -5623,8 +5782,11 @@
       <c r="I165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -5652,8 +5814,11 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -5679,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -5708,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -5734,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -5760,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -5786,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -5812,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -5838,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -5864,7 +6029,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -5890,7 +6055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -5919,7 +6084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -5945,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -5974,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -6000,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -6026,7 +6191,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -6052,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -6080,8 +6245,11 @@
       <c r="K182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -6107,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -6133,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -6159,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -6185,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -6211,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -6237,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -6263,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -6289,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -6315,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -6340,8 +6508,11 @@
       <c r="I192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -6366,8 +6537,11 @@
       <c r="I193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -6396,7 +6570,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -6422,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -6448,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -6474,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -6500,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -6526,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -6552,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -6578,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -6604,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -6630,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -6656,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -6688,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -6714,7 +6888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -6740,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -6766,7 +6940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -6792,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -6818,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -6844,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -6869,8 +7043,11 @@
       <c r="I212">
         <v>-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -6896,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -6925,7 +7102,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -6951,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -6980,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -7006,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -7032,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -7058,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -7084,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -7110,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -7136,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -7159,6 +7336,906 @@
         <v>-1</v>
       </c>
       <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224">
+        <v>33</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>200</v>
+      </c>
+      <c r="H224">
+        <v>-1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225">
+        <v>34</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>21</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>57500</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>-1</v>
+      </c>
+      <c r="I225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>30</v>
+      </c>
+      <c r="F226">
+        <v>54000</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>-1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>115</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227">
+        <v>34</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>30</v>
+      </c>
+      <c r="F227">
+        <v>87000</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1700</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228">
+        <v>37</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="F228">
+        <v>71000</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1600</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229">
+        <v>21</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>20</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>-1</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230">
+        <v>19</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>-1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>243</v>
+      </c>
+      <c r="B231">
+        <v>19</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>20</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>-1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>244</v>
+      </c>
+      <c r="B232">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>20</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>-1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>245</v>
+      </c>
+      <c r="B233">
+        <v>21</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>-100</v>
+      </c>
+      <c r="H233">
+        <v>-1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>246</v>
+      </c>
+      <c r="B234">
+        <v>24</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="F234">
+        <v>39000</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>-1</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>247</v>
+      </c>
+      <c r="B235">
+        <v>34</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="F235">
+        <v>87000</v>
+      </c>
+      <c r="G235">
+        <v>450</v>
+      </c>
+      <c r="H235">
+        <v>-1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>248</v>
+      </c>
+      <c r="B236">
+        <v>36</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>82500</v>
+      </c>
+      <c r="G236">
+        <v>100</v>
+      </c>
+      <c r="H236">
+        <v>1200</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>249</v>
+      </c>
+      <c r="B237">
+        <v>26</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>49000</v>
+      </c>
+      <c r="G237">
+        <v>-100</v>
+      </c>
+      <c r="H237">
+        <v>-1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>250</v>
+      </c>
+      <c r="B238">
+        <v>32</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>57000</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>-1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>251</v>
+      </c>
+      <c r="B239">
+        <v>26</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="F239">
+        <v>51000</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>-1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>252</v>
+      </c>
+      <c r="B240">
+        <v>23</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240">
+        <v>21</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>-1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>253</v>
+      </c>
+      <c r="B241">
+        <v>38</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>30</v>
+      </c>
+      <c r="F241">
+        <v>73000</v>
+      </c>
+      <c r="G241">
+        <v>1000</v>
+      </c>
+      <c r="H241">
+        <v>1700</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>254</v>
+      </c>
+      <c r="B242">
+        <v>44</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>105000</v>
+      </c>
+      <c r="G242">
+        <v>1200</v>
+      </c>
+      <c r="H242">
+        <v>3200</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>255</v>
+      </c>
+      <c r="B243">
+        <v>45</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>20</v>
+      </c>
+      <c r="F243">
+        <v>110000</v>
+      </c>
+      <c r="G243">
+        <v>1500</v>
+      </c>
+      <c r="H243">
+        <v>3000</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>256</v>
+      </c>
+      <c r="B244">
+        <v>41</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>14</v>
+      </c>
+      <c r="F244">
+        <v>98000</v>
+      </c>
+      <c r="G244">
+        <v>1000</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>257</v>
+      </c>
+      <c r="B245">
+        <v>42</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>96000</v>
+      </c>
+      <c r="G245">
+        <v>1700</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>258</v>
+      </c>
+      <c r="B246">
+        <v>40</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>20</v>
+      </c>
+      <c r="F246">
+        <v>89000</v>
+      </c>
+      <c r="G246">
+        <v>1400</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>259</v>
+      </c>
+      <c r="B247">
+        <v>39</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>94000</v>
+      </c>
+      <c r="G247">
+        <v>800</v>
+      </c>
+      <c r="H247">
+        <v>1100</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>260</v>
+      </c>
+      <c r="B248">
+        <v>37</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+      <c r="F248">
+        <v>91000</v>
+      </c>
+      <c r="G248">
+        <v>1600</v>
+      </c>
+      <c r="H248">
+        <v>2200</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>261</v>
+      </c>
+      <c r="B249">
+        <v>43</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>14</v>
+      </c>
+      <c r="F249">
+        <v>93000</v>
+      </c>
+      <c r="G249">
+        <v>1000</v>
+      </c>
+      <c r="H249">
+        <v>1800</v>
+      </c>
+      <c r="I249">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250">
+        <v>40</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>20</v>
+      </c>
+      <c r="F250">
+        <v>87000</v>
+      </c>
+      <c r="G250">
+        <v>1000</v>
+      </c>
+      <c r="H250">
+        <v>2300</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>263</v>
+      </c>
+      <c r="B251">
+        <v>39</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>22</v>
+      </c>
+      <c r="F251">
+        <v>105000</v>
+      </c>
+      <c r="G251">
+        <v>1300</v>
+      </c>
+      <c r="H251">
+        <v>2800</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>264</v>
+      </c>
+      <c r="B252">
+        <v>43</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>22</v>
+      </c>
+      <c r="F252">
+        <v>112000</v>
+      </c>
+      <c r="G252">
+        <v>-750</v>
+      </c>
+      <c r="H252">
+        <v>2100</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>265</v>
+      </c>
+      <c r="B253">
+        <v>46</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>22</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>3200</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>266</v>
+      </c>
+      <c r="B254">
+        <v>39</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>14</v>
+      </c>
+      <c r="F254">
+        <v>88000</v>
+      </c>
+      <c r="G254">
+        <v>500</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>269</v>
+      </c>
+      <c r="B255">
+        <v>44</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255">
+        <v>22</v>
+      </c>
+      <c r="F255">
+        <v>108000</v>
+      </c>
+      <c r="G255">
+        <v>1200</v>
+      </c>
+      <c r="H255">
+        <v>2200</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256">
+        <v>38</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256">
+        <v>22</v>
+      </c>
+      <c r="F256">
+        <v>103000</v>
+      </c>
+      <c r="G256">
+        <v>1700</v>
+      </c>
+      <c r="H256">
+        <v>2600</v>
+      </c>
+      <c r="I256">
         <v>1</v>
       </c>
     </row>
@@ -7168,6 +8245,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -7392,14 +8477,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7410,6 +8487,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7428,16 +8515,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonym\Documents\GitHub\example-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A154B-370D-403B-804E-1795C284487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D6A1CC-CB57-449B-9BD5-AEFCCF0DAAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
+    <workbookView xWindow="-24090" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{5528E795-C791-435E-807B-E00EFF8F35A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="276">
   <si>
     <t>Name</t>
   </si>
@@ -849,6 +849,21 @@
   </si>
   <si>
     <t>Jessica</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>Cicely</t>
+  </si>
+  <si>
+    <t>Ridhi</t>
   </si>
 </sst>
 </file>
@@ -1220,11 +1235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBF133-D857-474C-9FAB-94F41B7F049F}">
-  <dimension ref="A1:L256"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8239,20 +8254,142 @@
         <v>1</v>
       </c>
     </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>271</v>
+      </c>
+      <c r="B257">
+        <v>37</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>22</v>
+      </c>
+      <c r="F257">
+        <v>102000</v>
+      </c>
+      <c r="G257">
+        <v>1400</v>
+      </c>
+      <c r="H257">
+        <v>2300</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>272</v>
+      </c>
+      <c r="B258">
+        <v>38</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258">
+        <v>20</v>
+      </c>
+      <c r="F258">
+        <v>88000</v>
+      </c>
+      <c r="G258">
+        <v>900</v>
+      </c>
+      <c r="H258">
+        <v>1900</v>
+      </c>
+      <c r="I258">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>273</v>
+      </c>
+      <c r="B259">
+        <v>36</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="F259">
+        <v>78000</v>
+      </c>
+      <c r="G259">
+        <v>300</v>
+      </c>
+      <c r="H259">
+        <v>1700</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>274</v>
+      </c>
+      <c r="B260">
+        <v>39</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>12</v>
+      </c>
+      <c r="F260">
+        <v>94500</v>
+      </c>
+      <c r="G260">
+        <v>400</v>
+      </c>
+      <c r="H260">
+        <v>2300</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>275</v>
+      </c>
+      <c r="B261">
+        <v>34</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261">
+        <v>22</v>
+      </c>
+      <c r="F261">
+        <v>78000</v>
+      </c>
+      <c r="G261">
+        <v>700</v>
+      </c>
+      <c r="H261">
+        <v>-1</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC116FBE851056418397D23CE15C02B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d6247c4b58aafea520bb9699c52d3d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1105192a-0549-48ad-943a-7717d3fc4905" xmlns:ns4="503cb35d-549b-4020-be52-0b9d6cf7fa62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="130a2f1d92904d3f1a1fa4025249897e" ns3:_="" ns4:_="">
     <xsd:import namespace="1105192a-0549-48ad-943a-7717d3fc4905"/>
@@ -8477,6 +8614,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="503cb35d-549b-4020-be52-0b9d6cf7fa62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8487,16 +8632,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6594CA-5E76-4D5F-8479-3669252C60F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8515,6 +8650,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53A9EB78-4379-476A-BE51-361A2C7F77F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="503cb35d-549b-4020-be52-0b9d6cf7fa62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFE2C9F-45A3-4E9C-83C1-2B347328CE0A}">
   <ds:schemaRefs>
